--- a/biology/Botanique/Indigofera/Indigofera.xlsx
+++ b/biology/Botanique/Indigofera/Indigofera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Indigofera est un grand genre d'environ 700 espèces de plantes à fleurs appartenant à la famille des Fabaceae. On les trouve dans presque toutes les régions tropicales et subtropicales ; un petit nombre d'espèces atteignent la zone tempérée en Asie de l'est.
 Il s'agit généralement d'arbuste, mais certaines sont des plantes herbacées, et quelques-unes sont de petits arbres de 5 à 6 m de haut. La plupart ont un feuillage caduc.
@@ -514,9 +526,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon ITIS :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon ITIS :
 Indigofera arrecta Hochst. ex A. Rich.
 Indigofera caroliniana P. Mill.
 Indigofera colutea (Burm. f.) Merr.
@@ -534,9 +548,43 @@
 Indigofera tinctoria L., indigotier, indigo des teinturiers
 Indigofera trifoliata L.
 Indigofera trita L. f.
-Indigofera zollingeriana Miq.
-Principales espèces
-Environ 700 espèces, parmi lesquelles :
+Indigofera zollingeriana Miq.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Indigofera</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Indigofera</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Principales espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Environ 700 espèces, parmi lesquelles :
 Indigofera adenocarpa
 Indigofera adenoides
 Indigofera alopecuroides
@@ -770,31 +818,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Indigofera</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Indigofera</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Certaines de ces espèces, en particulier Indigofera tinctoria et Indigofera suffruticosa, sont utilisées pour produire la teinture d'indigo.
 L'aniline, un composé chimique dont divers colorants sont dérivés, était au départ synthétisée à partir de Indigofera suffruticosa (synonyme Indigofera anil, d'où le nom aniline).
